--- a/biology/Botanique/Sapin_noble/Sapin_noble.xlsx
+++ b/biology/Botanique/Sapin_noble/Sapin_noble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abies procera
 Le sapin noble ou sapin de l’Oregon (Abies procera) est une espèce de sapin de la famille des Pinaceae, originaire du nord-ouest de l'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre au feuillage persistant mesurant généralement de 40 à 70 m de hauteur et 2 m de diamètre, rarement 90 m de hauteur et 2,7 m diamètre[réf. nécessaire], avec une couronne conique étroite. L'écorce des jeunes arbres est lisse, grise avec des boules de résine, devenant rouge-brun, rugueuse et fissurée sur les vieux arbres. Les aiguilles, de 1 à 3,5 cm de long[réf. nécessaire], sont d'un bleu-vert glauque avec de fortes bandes de stomates et une pointe crantée mousse. Elles sont disposées en spirale sur la tige, mais légèrement tordues pour être au-dessus de la tige. Les cônes sont dressés, font 11 à 22 cm de long[réf. nécessaire], avec les écailles pourpres presque complètement cachées par les longues bractées jaune-vert; bruns à maturité, ils se désintégrent pour libérer leurs graines ailées à l'automne.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire des montagnes de la chaîne des Cascades et des chaînes côtières du Pacifique entre l'extrême nord-ouest de la Californie et l'ouest de l'Oregon et de l'État de Washington, aux États-Unis.
 C'est un arbre d'altitude, poussant généralement de 300 à 1500 m d'altitude[réf. nécessaire], atteignant rarement la limite des arbres.
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de l'arbre est utilisé en construction et en papeterie. On l'utilise aussi pour en faire des sapins de Noël.
 </t>
